--- a/data-raw/dac_exchange_day_b.xlsx
+++ b/data-raw/dac_exchange_day_b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\misc_figures\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgz813\Desktop\R\misc_figures\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90979645-CAA0-4C35-A7DA-2BC071DB4033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E0F1C-6ED6-4871-883D-E44A16EFE1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{49542F80-B68A-47D4-9929-7FF12213D34E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{49542F80-B68A-47D4-9929-7FF12213D34E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -192,6 +192,102 @@
   </si>
   <si>
     <t>Glu_v_T14_5</t>
+  </si>
+  <si>
+    <t>Hct_a_TTE</t>
+  </si>
+  <si>
+    <t>Hct_v_TTE</t>
+  </si>
+  <si>
+    <t>Hct_a_R1</t>
+  </si>
+  <si>
+    <t>Hct_v_R1</t>
+  </si>
+  <si>
+    <t>Hct_a_R2</t>
+  </si>
+  <si>
+    <t>Hct_v_R2</t>
+  </si>
+  <si>
+    <t>Hct_a_R3</t>
+  </si>
+  <si>
+    <t>Hct_v_R3</t>
+  </si>
+  <si>
+    <t>Hct_a_R5</t>
+  </si>
+  <si>
+    <t>Hct_v_R5</t>
+  </si>
+  <si>
+    <t>Hct_a_R10</t>
+  </si>
+  <si>
+    <t>Hct_v_R10</t>
+  </si>
+  <si>
+    <t>Hct_a_T15</t>
+  </si>
+  <si>
+    <t>Hct_v_T15</t>
+  </si>
+  <si>
+    <t>Hct_a_T0</t>
+  </si>
+  <si>
+    <t>Hct_v_T0</t>
+  </si>
+  <si>
+    <t>Hct_a_T3</t>
+  </si>
+  <si>
+    <t>Hct_v_T3</t>
+  </si>
+  <si>
+    <t>Hct_a_T7</t>
+  </si>
+  <si>
+    <t>Hct_v_T7</t>
+  </si>
+  <si>
+    <t>Hct_a_T9</t>
+  </si>
+  <si>
+    <t>Hct_v_T9</t>
+  </si>
+  <si>
+    <t>Hct_a_T10</t>
+  </si>
+  <si>
+    <t>Hct_v_T10</t>
+  </si>
+  <si>
+    <t>Hct_a_T11</t>
+  </si>
+  <si>
+    <t>Hct_v_T11</t>
+  </si>
+  <si>
+    <t>Hct_a_T12_5</t>
+  </si>
+  <si>
+    <t>Hct_v_T12_5</t>
+  </si>
+  <si>
+    <t>Hct_a_T13_5</t>
+  </si>
+  <si>
+    <t>Hct_v_T13_5</t>
+  </si>
+  <si>
+    <t>Hct_a_T14_5</t>
+  </si>
+  <si>
+    <t>Hct_v_T14_5</t>
   </si>
 </sst>
 </file>
@@ -325,7 +421,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -655,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A862F-0CAF-4C8B-A1CF-BD1CDCF404B3}">
-  <dimension ref="A1:AZ20"/>
+  <dimension ref="A1:CF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BL13" sqref="BL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +770,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,8 +927,104 @@
       <c r="AZ1" t="s">
         <v>23</v>
       </c>
+      <c r="BA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -963,8 +1163,92 @@
       <c r="AZ2">
         <v>5.4</v>
       </c>
+      <c r="BA2">
+        <v>43.4</v>
+      </c>
+      <c r="BB2">
+        <v>43.9</v>
+      </c>
+      <c r="BC2">
+        <v>45.5</v>
+      </c>
+      <c r="BD2">
+        <v>46.6</v>
+      </c>
+      <c r="BE2">
+        <v>44.5</v>
+      </c>
+      <c r="BF2">
+        <v>46.4</v>
+      </c>
+      <c r="BG2">
+        <v>45.1</v>
+      </c>
+      <c r="BH2">
+        <v>48.2</v>
+      </c>
+      <c r="BI2">
+        <v>45.9</v>
+      </c>
+      <c r="BJ2">
+        <v>49.1</v>
+      </c>
+      <c r="BK2">
+        <v>46.2</v>
+      </c>
+      <c r="BL2">
+        <v>46.5</v>
+      </c>
+      <c r="BM2">
+        <v>49.7</v>
+      </c>
+      <c r="BN2">
+        <v>48.7</v>
+      </c>
+      <c r="BO2">
+        <v>49.3</v>
+      </c>
+      <c r="BP2">
+        <v>51.7</v>
+      </c>
+      <c r="BU2">
+        <v>48.1</v>
+      </c>
+      <c r="BV2">
+        <v>50</v>
+      </c>
+      <c r="BW2">
+        <v>47.1</v>
+      </c>
+      <c r="BX2">
+        <v>48</v>
+      </c>
+      <c r="BY2">
+        <v>46.9</v>
+      </c>
+      <c r="BZ2">
+        <v>47.9</v>
+      </c>
+      <c r="CA2">
+        <v>47.9</v>
+      </c>
+      <c r="CB2">
+        <v>50.8</v>
+      </c>
+      <c r="CC2">
+        <v>52</v>
+      </c>
+      <c r="CD2">
+        <v>51.6</v>
+      </c>
+      <c r="CE2">
+        <v>50.1</v>
+      </c>
+      <c r="CF2">
+        <v>45.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1112,8 +1396,98 @@
       <c r="AZ3">
         <v>5.4</v>
       </c>
+      <c r="BA3">
+        <v>41.3</v>
+      </c>
+      <c r="BB3">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="BC3">
+        <v>40.1</v>
+      </c>
+      <c r="BD3">
+        <v>40.9</v>
+      </c>
+      <c r="BE3">
+        <v>45.7</v>
+      </c>
+      <c r="BF3">
+        <v>46.1</v>
+      </c>
+      <c r="BG3">
+        <v>46.2</v>
+      </c>
+      <c r="BH3">
+        <v>44.1</v>
+      </c>
+      <c r="BI3">
+        <v>43.5</v>
+      </c>
+      <c r="BJ3">
+        <v>45.308000000000007</v>
+      </c>
+      <c r="BK3">
+        <v>46.3</v>
+      </c>
+      <c r="BL3">
+        <v>45.3</v>
+      </c>
+      <c r="BM3">
+        <v>46.3</v>
+      </c>
+      <c r="BN3">
+        <v>48.7</v>
+      </c>
+      <c r="BO3">
+        <v>48.1</v>
+      </c>
+      <c r="BP3">
+        <v>47.8</v>
+      </c>
+      <c r="BQ3">
+        <v>48.8</v>
+      </c>
+      <c r="BR3">
+        <v>46.9</v>
+      </c>
+      <c r="BU3">
+        <v>53.4</v>
+      </c>
+      <c r="BV3">
+        <v>49.6</v>
+      </c>
+      <c r="BW3">
+        <v>46</v>
+      </c>
+      <c r="BX3">
+        <v>49.6</v>
+      </c>
+      <c r="BY3">
+        <v>49.8</v>
+      </c>
+      <c r="BZ3">
+        <v>49.8</v>
+      </c>
+      <c r="CA3">
+        <v>48.9</v>
+      </c>
+      <c r="CB3">
+        <v>54.1</v>
+      </c>
+      <c r="CC3">
+        <v>48</v>
+      </c>
+      <c r="CD3">
+        <v>51.5</v>
+      </c>
+      <c r="CE3">
+        <v>47.9</v>
+      </c>
+      <c r="CF3">
+        <v>50.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1243,8 +1617,86 @@
       <c r="AZ4">
         <v>5.7</v>
       </c>
+      <c r="BA4">
+        <v>41.1</v>
+      </c>
+      <c r="BB4">
+        <v>41.8</v>
+      </c>
+      <c r="BC4">
+        <v>41.3</v>
+      </c>
+      <c r="BD4">
+        <v>44.9</v>
+      </c>
+      <c r="BE4">
+        <v>44.1</v>
+      </c>
+      <c r="BF4">
+        <v>46.6</v>
+      </c>
+      <c r="BG4">
+        <v>46.7</v>
+      </c>
+      <c r="BH4">
+        <v>47.7</v>
+      </c>
+      <c r="BI4">
+        <v>46.5</v>
+      </c>
+      <c r="BJ4">
+        <v>49.9</v>
+      </c>
+      <c r="BK4">
+        <v>46.4</v>
+      </c>
+      <c r="BL4">
+        <v>46.9</v>
+      </c>
+      <c r="BM4">
+        <v>49.3</v>
+      </c>
+      <c r="BN4">
+        <v>53.3</v>
+      </c>
+      <c r="BU4">
+        <v>48.6</v>
+      </c>
+      <c r="BV4">
+        <v>53</v>
+      </c>
+      <c r="BW4">
+        <v>56.3</v>
+      </c>
+      <c r="BX4">
+        <v>50.9</v>
+      </c>
+      <c r="BY4">
+        <v>49.2</v>
+      </c>
+      <c r="BZ4">
+        <v>50.3</v>
+      </c>
+      <c r="CA4">
+        <v>46.8</v>
+      </c>
+      <c r="CB4">
+        <v>54.6</v>
+      </c>
+      <c r="CC4">
+        <v>48</v>
+      </c>
+      <c r="CD4">
+        <v>49.4</v>
+      </c>
+      <c r="CE4">
+        <v>49.7</v>
+      </c>
+      <c r="CF4">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1392,8 +1844,98 @@
       <c r="AZ5">
         <v>4.3</v>
       </c>
+      <c r="BA5">
+        <v>42.5</v>
+      </c>
+      <c r="BB5">
+        <v>42.9</v>
+      </c>
+      <c r="BC5">
+        <v>43.7</v>
+      </c>
+      <c r="BD5">
+        <v>47.1</v>
+      </c>
+      <c r="BE5">
+        <v>43.5</v>
+      </c>
+      <c r="BF5">
+        <v>46.3</v>
+      </c>
+      <c r="BG5">
+        <v>41.8</v>
+      </c>
+      <c r="BH5">
+        <v>45.1</v>
+      </c>
+      <c r="BI5">
+        <v>41.3</v>
+      </c>
+      <c r="BJ5">
+        <v>46</v>
+      </c>
+      <c r="BK5">
+        <v>44.1</v>
+      </c>
+      <c r="BL5">
+        <v>46.4</v>
+      </c>
+      <c r="BM5">
+        <v>45.4</v>
+      </c>
+      <c r="BN5">
+        <v>43.9</v>
+      </c>
+      <c r="BO5">
+        <v>43.5</v>
+      </c>
+      <c r="BP5">
+        <v>45.6</v>
+      </c>
+      <c r="BQ5">
+        <v>49.7</v>
+      </c>
+      <c r="BR5">
+        <v>47.2</v>
+      </c>
+      <c r="BU5">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="BV5">
+        <v>44.8</v>
+      </c>
+      <c r="BW5">
+        <v>45</v>
+      </c>
+      <c r="BX5">
+        <v>42.9</v>
+      </c>
+      <c r="BY5">
+        <v>41.1</v>
+      </c>
+      <c r="BZ5">
+        <v>44.2</v>
+      </c>
+      <c r="CA5">
+        <v>42.6</v>
+      </c>
+      <c r="CB5">
+        <v>41.2</v>
+      </c>
+      <c r="CC5">
+        <v>38.9</v>
+      </c>
+      <c r="CD5">
+        <v>41.8</v>
+      </c>
+      <c r="CE5">
+        <v>41</v>
+      </c>
+      <c r="CF5">
+        <v>40.299999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1526,8 +2068,86 @@
       <c r="AZ6">
         <v>5.3</v>
       </c>
+      <c r="BA6">
+        <v>45.2</v>
+      </c>
+      <c r="BB6">
+        <v>39.4</v>
+      </c>
+      <c r="BC6">
+        <v>40.6</v>
+      </c>
+      <c r="BD6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="BE6">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="BF6">
+        <v>44.3</v>
+      </c>
+      <c r="BG6">
+        <v>45.480857337820375</v>
+      </c>
+      <c r="BH6">
+        <v>46.2</v>
+      </c>
+      <c r="BI6">
+        <v>47.114644352956574</v>
+      </c>
+      <c r="BJ6">
+        <v>44.5</v>
+      </c>
+      <c r="BK6">
+        <v>49.05570934887551</v>
+      </c>
+      <c r="BL6">
+        <v>47.5</v>
+      </c>
+      <c r="BM6">
+        <v>48.426537976598524</v>
+      </c>
+      <c r="BN6">
+        <v>47</v>
+      </c>
+      <c r="BU6">
+        <v>49.700338537527671</v>
+      </c>
+      <c r="BV6">
+        <v>46.3</v>
+      </c>
+      <c r="BW6">
+        <v>49.621456272410462</v>
+      </c>
+      <c r="BX6">
+        <v>43.4</v>
+      </c>
+      <c r="BY6">
+        <v>47.82118659177722</v>
+      </c>
+      <c r="BZ6">
+        <v>43.4</v>
+      </c>
+      <c r="CA6">
+        <v>47.821445068379191</v>
+      </c>
+      <c r="CB6">
+        <v>48.957061912632334</v>
+      </c>
+      <c r="CC6">
+        <v>48.938150809852495</v>
+      </c>
+      <c r="CD6">
+        <v>41.5</v>
+      </c>
+      <c r="CE6">
+        <v>47.300464187390745</v>
+      </c>
+      <c r="CF6">
+        <v>45.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1675,8 +2295,98 @@
       <c r="AZ7">
         <v>5.4</v>
       </c>
+      <c r="BA7">
+        <v>41.4</v>
+      </c>
+      <c r="BB7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="BC7">
+        <v>44.5</v>
+      </c>
+      <c r="BD7">
+        <v>45.2</v>
+      </c>
+      <c r="BE7">
+        <v>43.4</v>
+      </c>
+      <c r="BF7">
+        <v>43.8</v>
+      </c>
+      <c r="BG7">
+        <v>43.8</v>
+      </c>
+      <c r="BH7">
+        <v>44</v>
+      </c>
+      <c r="BI7">
+        <v>43.1</v>
+      </c>
+      <c r="BJ7">
+        <v>41.8</v>
+      </c>
+      <c r="BK7">
+        <v>42.6</v>
+      </c>
+      <c r="BL7">
+        <v>47.311999999999998</v>
+      </c>
+      <c r="BM7">
+        <v>45.3</v>
+      </c>
+      <c r="BN7">
+        <v>48.197999999999993</v>
+      </c>
+      <c r="BO7">
+        <v>46.9</v>
+      </c>
+      <c r="BP7">
+        <v>48.113999999999997</v>
+      </c>
+      <c r="BQ7">
+        <v>47.4</v>
+      </c>
+      <c r="BR7">
+        <v>47.8</v>
+      </c>
+      <c r="BU7">
+        <v>47.6</v>
+      </c>
+      <c r="BV7">
+        <v>48.72</v>
+      </c>
+      <c r="BW7">
+        <v>46.5</v>
+      </c>
+      <c r="BX7">
+        <v>48.535999999999994</v>
+      </c>
+      <c r="BY7">
+        <v>46.9</v>
+      </c>
+      <c r="BZ7">
+        <v>46.2</v>
+      </c>
+      <c r="CA7">
+        <v>45.5</v>
+      </c>
+      <c r="CB7">
+        <v>45.8</v>
+      </c>
+      <c r="CC7">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="CD7">
+        <v>46.6</v>
+      </c>
+      <c r="CE7">
+        <v>41.4</v>
+      </c>
+      <c r="CF7">
+        <v>45.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1797,8 +2507,80 @@
       <c r="AZ8">
         <v>5.5</v>
       </c>
+      <c r="BA8">
+        <v>46.6</v>
+      </c>
+      <c r="BB8">
+        <v>44.1</v>
+      </c>
+      <c r="BC8">
+        <v>44.8</v>
+      </c>
+      <c r="BD8">
+        <v>44.2</v>
+      </c>
+      <c r="BE8">
+        <v>46.1</v>
+      </c>
+      <c r="BF8">
+        <v>45.4</v>
+      </c>
+      <c r="BG8">
+        <v>45.1</v>
+      </c>
+      <c r="BH8">
+        <v>46.5</v>
+      </c>
+      <c r="BI8">
+        <v>48.3</v>
+      </c>
+      <c r="BJ8">
+        <v>47</v>
+      </c>
+      <c r="BK8">
+        <v>50.8</v>
+      </c>
+      <c r="BL8">
+        <v>48.3</v>
+      </c>
+      <c r="BU8">
+        <v>48.6</v>
+      </c>
+      <c r="BV8">
+        <v>49.9</v>
+      </c>
+      <c r="BW8">
+        <v>48.2</v>
+      </c>
+      <c r="BX8">
+        <v>47.3</v>
+      </c>
+      <c r="BY8">
+        <v>48.5</v>
+      </c>
+      <c r="BZ8">
+        <v>48.7</v>
+      </c>
+      <c r="CA8">
+        <v>49.7</v>
+      </c>
+      <c r="CB8">
+        <v>49.5</v>
+      </c>
+      <c r="CC8">
+        <v>47.9</v>
+      </c>
+      <c r="CD8">
+        <v>47.7</v>
+      </c>
+      <c r="CE8">
+        <v>45.3</v>
+      </c>
+      <c r="CF8">
+        <v>49.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1937,8 +2719,92 @@
       <c r="AZ9">
         <v>5.7</v>
       </c>
+      <c r="BA9">
+        <v>49.8</v>
+      </c>
+      <c r="BB9">
+        <v>48.2</v>
+      </c>
+      <c r="BC9">
+        <v>45.6</v>
+      </c>
+      <c r="BD9">
+        <v>46.6</v>
+      </c>
+      <c r="BE9">
+        <v>45.7</v>
+      </c>
+      <c r="BF9">
+        <v>46.1</v>
+      </c>
+      <c r="BG9">
+        <v>46.9</v>
+      </c>
+      <c r="BH9">
+        <v>47.9</v>
+      </c>
+      <c r="BI9">
+        <v>49.2</v>
+      </c>
+      <c r="BJ9">
+        <v>47.3</v>
+      </c>
+      <c r="BK9">
+        <v>48.2</v>
+      </c>
+      <c r="BL9">
+        <v>46.8</v>
+      </c>
+      <c r="BM9">
+        <v>49.4</v>
+      </c>
+      <c r="BN9">
+        <v>50</v>
+      </c>
+      <c r="BO9">
+        <v>46.335999999999999</v>
+      </c>
+      <c r="BP9">
+        <v>47.903999999999996</v>
+      </c>
+      <c r="BU9">
+        <v>51.6</v>
+      </c>
+      <c r="BV9">
+        <v>51.2</v>
+      </c>
+      <c r="BW9">
+        <v>50.5</v>
+      </c>
+      <c r="BX9">
+        <v>50.9</v>
+      </c>
+      <c r="BY9">
+        <v>51.9</v>
+      </c>
+      <c r="BZ9">
+        <v>50.8</v>
+      </c>
+      <c r="CA9">
+        <v>50.4</v>
+      </c>
+      <c r="CB9">
+        <v>52.4</v>
+      </c>
+      <c r="CC9">
+        <v>48.9</v>
+      </c>
+      <c r="CD9">
+        <v>51</v>
+      </c>
+      <c r="CE9">
+        <v>47.9</v>
+      </c>
+      <c r="CF9">
+        <v>49.8</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2059,8 +2925,80 @@
       <c r="AZ10">
         <v>6.6</v>
       </c>
+      <c r="BA10">
+        <v>44</v>
+      </c>
+      <c r="BB10">
+        <v>44.9</v>
+      </c>
+      <c r="BC10">
+        <v>48.9</v>
+      </c>
+      <c r="BD10">
+        <v>44.9</v>
+      </c>
+      <c r="BE10">
+        <v>48.9</v>
+      </c>
+      <c r="BF10">
+        <v>50.9</v>
+      </c>
+      <c r="BG10">
+        <v>48.7</v>
+      </c>
+      <c r="BH10">
+        <v>50.2</v>
+      </c>
+      <c r="BI10">
+        <v>51.4</v>
+      </c>
+      <c r="BJ10">
+        <v>52.1</v>
+      </c>
+      <c r="BK10">
+        <v>51.8</v>
+      </c>
+      <c r="BL10">
+        <v>53.6</v>
+      </c>
+      <c r="BU10">
+        <v>55.1</v>
+      </c>
+      <c r="BV10">
+        <v>53.5</v>
+      </c>
+      <c r="BW10">
+        <v>52.7</v>
+      </c>
+      <c r="BX10">
+        <v>54.6</v>
+      </c>
+      <c r="BY10">
+        <v>53</v>
+      </c>
+      <c r="BZ10">
+        <v>54.3</v>
+      </c>
+      <c r="CA10">
+        <v>53.7</v>
+      </c>
+      <c r="CB10">
+        <v>50.9</v>
+      </c>
+      <c r="CC10">
+        <v>51.3</v>
+      </c>
+      <c r="CD10">
+        <v>51.6</v>
+      </c>
+      <c r="CE10">
+        <v>50.5</v>
+      </c>
+      <c r="CF10">
+        <v>50.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -2184,8 +3122,80 @@
       <c r="AZ11">
         <v>5.2</v>
       </c>
+      <c r="BA11">
+        <v>44.9</v>
+      </c>
+      <c r="BB11">
+        <v>43</v>
+      </c>
+      <c r="BC11">
+        <v>45.1</v>
+      </c>
+      <c r="BD11">
+        <v>44.4</v>
+      </c>
+      <c r="BE11">
+        <v>44.9</v>
+      </c>
+      <c r="BF11">
+        <v>46</v>
+      </c>
+      <c r="BG11">
+        <v>44.3</v>
+      </c>
+      <c r="BH11">
+        <v>46.7</v>
+      </c>
+      <c r="BI11">
+        <v>43.6</v>
+      </c>
+      <c r="BJ11">
+        <v>47</v>
+      </c>
+      <c r="BK11">
+        <v>43.2</v>
+      </c>
+      <c r="BL11">
+        <v>49.4</v>
+      </c>
+      <c r="BU11">
+        <v>45.4</v>
+      </c>
+      <c r="BV11">
+        <v>50.3</v>
+      </c>
+      <c r="BW11">
+        <v>48.6</v>
+      </c>
+      <c r="BX11">
+        <v>48.2</v>
+      </c>
+      <c r="BY11">
+        <v>44.5</v>
+      </c>
+      <c r="BZ11">
+        <v>52.6</v>
+      </c>
+      <c r="CA11">
+        <v>51.2</v>
+      </c>
+      <c r="CB11">
+        <v>51.6</v>
+      </c>
+      <c r="CC11">
+        <v>45.5</v>
+      </c>
+      <c r="CD11">
+        <v>51.9</v>
+      </c>
+      <c r="CE11">
+        <v>41.2</v>
+      </c>
+      <c r="CF11">
+        <v>53.4</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -2315,8 +3325,86 @@
       <c r="AZ12">
         <v>4.9000000000000004</v>
       </c>
+      <c r="BA12">
+        <v>40.9</v>
+      </c>
+      <c r="BB12">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="BC12">
+        <v>43.1</v>
+      </c>
+      <c r="BD12">
+        <v>39.5</v>
+      </c>
+      <c r="BE12">
+        <v>44.3</v>
+      </c>
+      <c r="BF12">
+        <v>43.4</v>
+      </c>
+      <c r="BG12">
+        <v>44.7</v>
+      </c>
+      <c r="BH12">
+        <v>44.5</v>
+      </c>
+      <c r="BI12">
+        <v>45.4</v>
+      </c>
+      <c r="BJ12">
+        <v>45.3</v>
+      </c>
+      <c r="BK12">
+        <v>47.2</v>
+      </c>
+      <c r="BL12">
+        <v>45.1</v>
+      </c>
+      <c r="BM12">
+        <v>48</v>
+      </c>
+      <c r="BN12">
+        <v>45.5</v>
+      </c>
+      <c r="BU12">
+        <v>51.5</v>
+      </c>
+      <c r="BV12">
+        <v>46.6</v>
+      </c>
+      <c r="BW12">
+        <v>50.8</v>
+      </c>
+      <c r="BX12">
+        <v>48.3</v>
+      </c>
+      <c r="BY12">
+        <v>48.4</v>
+      </c>
+      <c r="BZ12">
+        <v>47</v>
+      </c>
+      <c r="CA12">
+        <v>47.7</v>
+      </c>
+      <c r="CB12">
+        <v>46.3</v>
+      </c>
+      <c r="CC12">
+        <v>51</v>
+      </c>
+      <c r="CD12">
+        <v>45.5</v>
+      </c>
+      <c r="CE12">
+        <v>49.2</v>
+      </c>
+      <c r="CF12">
+        <v>46.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -2467,8 +3555,98 @@
       <c r="AZ13">
         <v>5.2</v>
       </c>
+      <c r="BA13">
+        <v>42.8</v>
+      </c>
+      <c r="BB13">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="BC13">
+        <v>46.9</v>
+      </c>
+      <c r="BD13">
+        <v>45.1</v>
+      </c>
+      <c r="BE13">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="BF13">
+        <v>44.6</v>
+      </c>
+      <c r="BG13">
+        <v>41.2</v>
+      </c>
+      <c r="BH13">
+        <v>45.1</v>
+      </c>
+      <c r="BI13">
+        <v>40.4</v>
+      </c>
+      <c r="BJ13">
+        <v>44</v>
+      </c>
+      <c r="BK13">
+        <v>41.6</v>
+      </c>
+      <c r="BL13">
+        <v>47.2</v>
+      </c>
+      <c r="BM13">
+        <v>49</v>
+      </c>
+      <c r="BN13">
+        <v>47.6</v>
+      </c>
+      <c r="BO13">
+        <v>48.4</v>
+      </c>
+      <c r="BP13">
+        <v>50.8</v>
+      </c>
+      <c r="BQ13">
+        <v>43.1</v>
+      </c>
+      <c r="BR13">
+        <v>52.4</v>
+      </c>
+      <c r="BU13">
+        <v>50.7</v>
+      </c>
+      <c r="BV13">
+        <v>49.6</v>
+      </c>
+      <c r="BW13">
+        <v>48.8</v>
+      </c>
+      <c r="BX13">
+        <v>51.3</v>
+      </c>
+      <c r="BY13">
+        <v>47.6</v>
+      </c>
+      <c r="BZ13">
+        <v>50.7</v>
+      </c>
+      <c r="CA13">
+        <v>51.5</v>
+      </c>
+      <c r="CB13">
+        <v>49.8</v>
+      </c>
+      <c r="CC13">
+        <v>48.5</v>
+      </c>
+      <c r="CD13">
+        <v>48.6</v>
+      </c>
+      <c r="CE13">
+        <v>50.3</v>
+      </c>
+      <c r="CF13">
+        <v>50.6</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2571,8 +3749,68 @@
       <c r="AZ14">
         <v>4.5999999999999996</v>
       </c>
+      <c r="BA14">
+        <v>42.4</v>
+      </c>
+      <c r="BB14">
+        <v>39.4</v>
+      </c>
+      <c r="BC14">
+        <v>39.6</v>
+      </c>
+      <c r="BD14">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="BE14">
+        <v>45.6</v>
+      </c>
+      <c r="BF14">
+        <v>42.9</v>
+      </c>
+      <c r="BG14">
+        <v>46.7</v>
+      </c>
+      <c r="BH14">
+        <v>41.6</v>
+      </c>
+      <c r="BU14">
+        <v>46.3</v>
+      </c>
+      <c r="BV14">
+        <v>35</v>
+      </c>
+      <c r="BW14">
+        <v>48.5</v>
+      </c>
+      <c r="BX14">
+        <v>47.6090957578256</v>
+      </c>
+      <c r="BY14">
+        <v>46.2</v>
+      </c>
+      <c r="BZ14">
+        <v>20.8</v>
+      </c>
+      <c r="CA14">
+        <v>48.7</v>
+      </c>
+      <c r="CB14">
+        <v>46.9</v>
+      </c>
+      <c r="CC14">
+        <v>51.9</v>
+      </c>
+      <c r="CD14">
+        <v>48.4</v>
+      </c>
+      <c r="CE14">
+        <v>46.4</v>
+      </c>
+      <c r="CF14">
+        <v>48.8</v>
+      </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2687,8 +3925,74 @@
       <c r="AZ15">
         <v>5.1169632623159043</v>
       </c>
+      <c r="BA15">
+        <v>42.5</v>
+      </c>
+      <c r="BB15">
+        <v>42.2</v>
+      </c>
+      <c r="BC15">
+        <v>42.8</v>
+      </c>
+      <c r="BD15">
+        <v>43.4</v>
+      </c>
+      <c r="BE15">
+        <v>45.1</v>
+      </c>
+      <c r="BF15">
+        <v>45.143679629295619</v>
+      </c>
+      <c r="BG15">
+        <v>44.9</v>
+      </c>
+      <c r="BH15">
+        <v>44.95861648085139</v>
+      </c>
+      <c r="BI15">
+        <v>45.3</v>
+      </c>
+      <c r="BJ15">
+        <v>44.832000000000001</v>
+      </c>
+      <c r="BU15">
+        <v>46.5</v>
+      </c>
+      <c r="BV15">
+        <v>49.152000000000001</v>
+      </c>
+      <c r="BW15">
+        <v>45.9</v>
+      </c>
+      <c r="BX15">
+        <v>49.1</v>
+      </c>
+      <c r="BY15">
+        <v>45.9</v>
+      </c>
+      <c r="BZ15">
+        <v>49.106615784988506</v>
+      </c>
+      <c r="CA15">
+        <v>45.4</v>
+      </c>
+      <c r="CB15">
+        <v>48.247412778697594</v>
+      </c>
+      <c r="CC15">
+        <v>44.8</v>
+      </c>
+      <c r="CD15">
+        <v>45.680868401386206</v>
+      </c>
+      <c r="CE15">
+        <v>43.7</v>
+      </c>
+      <c r="CF15">
+        <v>47.532261533156529</v>
+      </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2800,8 +4104,74 @@
       <c r="AZ16">
         <v>5.3</v>
       </c>
+      <c r="BA16">
+        <v>44</v>
+      </c>
+      <c r="BB16">
+        <v>43</v>
+      </c>
+      <c r="BC16">
+        <v>43.9</v>
+      </c>
+      <c r="BD16">
+        <v>45</v>
+      </c>
+      <c r="BE16">
+        <v>44.9</v>
+      </c>
+      <c r="BF16">
+        <v>47.1</v>
+      </c>
+      <c r="BG16">
+        <v>48.3</v>
+      </c>
+      <c r="BH16">
+        <v>47.8</v>
+      </c>
+      <c r="BI16">
+        <v>47.8</v>
+      </c>
+      <c r="BJ16">
+        <v>49.2</v>
+      </c>
+      <c r="BU16">
+        <v>49.1</v>
+      </c>
+      <c r="BV16">
+        <v>49</v>
+      </c>
+      <c r="BW16">
+        <v>47.8</v>
+      </c>
+      <c r="BX16">
+        <v>48</v>
+      </c>
+      <c r="BY16">
+        <v>47.6</v>
+      </c>
+      <c r="BZ16">
+        <v>47.6</v>
+      </c>
+      <c r="CA16">
+        <v>48.6</v>
+      </c>
+      <c r="CB16">
+        <v>47</v>
+      </c>
+      <c r="CC16">
+        <v>48.5</v>
+      </c>
+      <c r="CD16">
+        <v>47.2</v>
+      </c>
+      <c r="CE16">
+        <v>47.4</v>
+      </c>
+      <c r="CF16">
+        <v>45.3</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -2931,8 +4301,86 @@
       <c r="AZ17">
         <v>4.8</v>
       </c>
+      <c r="BA17">
+        <v>38.1</v>
+      </c>
+      <c r="BB17">
+        <v>38.6</v>
+      </c>
+      <c r="BC17">
+        <v>43.2</v>
+      </c>
+      <c r="BD17">
+        <v>40.9</v>
+      </c>
+      <c r="BE17">
+        <v>42.9</v>
+      </c>
+      <c r="BF17">
+        <v>41.7</v>
+      </c>
+      <c r="BG17">
+        <v>42.8</v>
+      </c>
+      <c r="BH17">
+        <v>43.9</v>
+      </c>
+      <c r="BI17">
+        <v>44.9</v>
+      </c>
+      <c r="BJ17">
+        <v>43.6</v>
+      </c>
+      <c r="BK17">
+        <v>44.2</v>
+      </c>
+      <c r="BL17">
+        <v>44.4</v>
+      </c>
+      <c r="BM17">
+        <v>44.6</v>
+      </c>
+      <c r="BN17">
+        <v>47</v>
+      </c>
+      <c r="BU17">
+        <v>47</v>
+      </c>
+      <c r="BV17">
+        <v>45.9</v>
+      </c>
+      <c r="BW17">
+        <v>48.2</v>
+      </c>
+      <c r="BX17">
+        <v>46.8</v>
+      </c>
+      <c r="BY17">
+        <v>45</v>
+      </c>
+      <c r="BZ17">
+        <v>45</v>
+      </c>
+      <c r="CA17">
+        <v>45.6</v>
+      </c>
+      <c r="CB17">
+        <v>44.6</v>
+      </c>
+      <c r="CC17">
+        <v>45.2</v>
+      </c>
+      <c r="CD17">
+        <v>42.8</v>
+      </c>
+      <c r="CE17">
+        <v>42.7</v>
+      </c>
+      <c r="CF17">
+        <v>44.3</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3044,8 +4492,74 @@
       <c r="AZ18">
         <v>5.4</v>
       </c>
+      <c r="BA18">
+        <v>43.4</v>
+      </c>
+      <c r="BB18">
+        <v>40</v>
+      </c>
+      <c r="BC18">
+        <v>43.1</v>
+      </c>
+      <c r="BD18">
+        <v>40.6</v>
+      </c>
+      <c r="BE18">
+        <v>44.2</v>
+      </c>
+      <c r="BF18">
+        <v>41.8</v>
+      </c>
+      <c r="BG18">
+        <v>44.3</v>
+      </c>
+      <c r="BH18">
+        <v>41.1</v>
+      </c>
+      <c r="BI18">
+        <v>44.3</v>
+      </c>
+      <c r="BJ18">
+        <v>45.6</v>
+      </c>
+      <c r="BU18">
+        <v>46.9</v>
+      </c>
+      <c r="BV18">
+        <v>47.4</v>
+      </c>
+      <c r="BW18">
+        <v>46.4</v>
+      </c>
+      <c r="BX18">
+        <v>46.5</v>
+      </c>
+      <c r="BY18">
+        <v>44.4</v>
+      </c>
+      <c r="BZ18">
+        <v>45.5</v>
+      </c>
+      <c r="CA18">
+        <v>43.9</v>
+      </c>
+      <c r="CB18">
+        <v>46.9</v>
+      </c>
+      <c r="CC18">
+        <v>46</v>
+      </c>
+      <c r="CD18">
+        <v>45.3</v>
+      </c>
+      <c r="CE18">
+        <v>44.2</v>
+      </c>
+      <c r="CF18">
+        <v>45</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:84" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -3169,8 +4683,80 @@
       <c r="AZ19">
         <v>5.2</v>
       </c>
+      <c r="BA19">
+        <v>42.4</v>
+      </c>
+      <c r="BB19">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BC19">
+        <v>43.9</v>
+      </c>
+      <c r="BD19">
+        <v>41</v>
+      </c>
+      <c r="BE19">
+        <v>44.6</v>
+      </c>
+      <c r="BF19">
+        <v>43.3</v>
+      </c>
+      <c r="BG19">
+        <v>44.5</v>
+      </c>
+      <c r="BH19">
+        <v>45</v>
+      </c>
+      <c r="BI19">
+        <v>46.1</v>
+      </c>
+      <c r="BJ19">
+        <v>45.6</v>
+      </c>
+      <c r="BK19">
+        <v>45.4</v>
+      </c>
+      <c r="BL19">
+        <v>46.8</v>
+      </c>
+      <c r="BU19">
+        <v>47.3</v>
+      </c>
+      <c r="BV19">
+        <v>48.2</v>
+      </c>
+      <c r="BW19">
+        <v>46.8</v>
+      </c>
+      <c r="BX19">
+        <v>47.3</v>
+      </c>
+      <c r="BY19">
+        <v>45.3</v>
+      </c>
+      <c r="BZ19">
+        <v>45.1</v>
+      </c>
+      <c r="CA19">
+        <v>48.2</v>
+      </c>
+      <c r="CB19">
+        <v>45.5</v>
+      </c>
+      <c r="CC19">
+        <v>46.6</v>
+      </c>
+      <c r="CD19">
+        <v>46</v>
+      </c>
+      <c r="CE19">
+        <v>49.1</v>
+      </c>
+      <c r="CF19">
+        <v>45.4</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:84" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
